--- a/schematic/violet_board/main_BOM.xlsx
+++ b/schematic/violet_board/main_BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -91,7 +91,7 @@
     <t>2.2uF</t>
   </si>
   <si>
-    <t>C8</t>
+    <t>C8, C12</t>
   </si>
   <si>
     <t>GRM21BR71H104K</t>
@@ -121,7 +121,7 @@
     <t>4.7uH</t>
   </si>
   <si>
-    <t>Q1</t>
+    <t>Q1, Q2</t>
   </si>
   <si>
     <t>BSS138LT1G</t>
@@ -130,7 +130,7 @@
     <t>SOT23-3P95_240X110L43X44N</t>
   </si>
   <si>
-    <t>Q2, Q3</t>
+    <t>Q3, Q4</t>
   </si>
   <si>
     <t>BC817-16,235</t>
@@ -151,25 +151,7 @@
     <t>1.2k</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>RC0402FR-0713KL</t>
-  </si>
-  <si>
-    <t>13k</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>RC0402FR-0720KL</t>
-  </si>
-  <si>
-    <t>20k</t>
-  </si>
-  <si>
-    <t>R4, R5</t>
+    <t>R2, R3, R4, R8</t>
   </si>
   <si>
     <t>RC0402FR-0730KL</t>
@@ -178,7 +160,7 @@
     <t>30k</t>
   </si>
   <si>
-    <t>R6, R9, R10, R11, R12</t>
+    <t>R5, R9, R10, R11, R12</t>
   </si>
   <si>
     <t>RC0805JR-0710KL</t>
@@ -190,7 +172,7 @@
     <t>10k</t>
   </si>
   <si>
-    <t>R7, R8</t>
+    <t>R6, R7</t>
   </si>
   <si>
     <t>RC0402JR-07390RL</t>
@@ -226,19 +208,19 @@
     <t>MODULE_ESP32-WROOM-32</t>
   </si>
   <si>
-    <t>XP1, XP4, XP5, XP6</t>
+    <t>XP1, XP2, XP5, XP6, XP7</t>
   </si>
   <si>
     <t>DS1066-02M</t>
   </si>
   <si>
-    <t>XP2, XP3</t>
+    <t>XP3, XP4</t>
   </si>
   <si>
     <t>PLS_20</t>
   </si>
   <si>
-    <t>XP7</t>
+    <t>XP8</t>
   </si>
   <si>
     <t>PLS_6R</t>
@@ -1088,20 +1070,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,7 +1222,7 @@
         <v>27</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,7 +1276,7 @@
         <v>37</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,7 +1333,7 @@
         <v>47</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,13 +1347,13 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,16 +1361,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1400,19 +1381,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
         <v>57</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,13 +1404,10 @@
         <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
         <v>60</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,10 +1438,10 @@
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,16 +1449,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,49 +1466,15 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23">
         <v>1</v>
       </c>
     </row>
